--- a/Data/Test.xlsx
+++ b/Data/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\UiPath\New Project\ExcelAutomation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68651287-B295-4E63-8F39-CC15889BE62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF0A5CA-F832-4165-8AD9-F4700513B7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,15 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
   <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Aniket</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -51,12 +42,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>Mike</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
@@ -73,6 +58,21 @@
   </si>
   <si>
     <t>Q</t>
+  </si>
+  <si>
+    <t>ANIKET</t>
+  </si>
+  <si>
+    <t>MIKE</t>
+  </si>
+  <si>
+    <t>SAM</t>
+  </si>
+  <si>
+    <t>FIRST NAME</t>
+  </si>
+  <si>
+    <t>LAST NAME</t>
   </si>
 </sst>
 </file>
@@ -116,9 +116,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,173 +403,173 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    </row>
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B15" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    </row>
+    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
